--- a/2. DESING_DB.xlsx
+++ b/2. DESING_DB.xlsx
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="68">
   <si>
     <t>PERSONA</t>
   </si>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -694,10 +694,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,19 +715,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1261,7 @@
   <dimension ref="A2:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,18 +1274,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="10" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1290,98 +1293,98 @@
       <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="4" t="s">
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="4" t="s">
+      <c r="V3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="4">
-        <v>40</v>
-      </c>
-      <c r="W4" s="4" t="s">
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="3">
+        <v>40</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="4">
-        <v>40</v>
-      </c>
-      <c r="W5" s="4" t="s">
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="3">
+        <v>40</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="4">
-        <v>40</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="3">
+        <v>40</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="4">
-        <v>40</v>
-      </c>
-      <c r="W7" s="4" t="s">
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="3">
+        <v>40</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="4">
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="3">
         <v>41</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1389,18 +1392,18 @@
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V9" s="4">
-        <v>42</v>
-      </c>
-      <c r="W9" s="4" t="s">
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="3">
+        <v>42</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1408,370 +1411,366 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="Y10" s="11"/>
+      <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="10" t="s">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="W11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="J12" s="5" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="3"/>
+      <c r="J12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="4" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="4" t="s">
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" s="4" t="s">
+      <c r="V12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="J13" s="5" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="3"/>
+      <c r="J13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="4">
-        <v>40</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="5" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="3">
+        <v>40</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="4" t="s">
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="4" t="s">
+      <c r="V13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="J14" s="5" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="3"/>
+      <c r="J14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="4">
-        <v>40</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="3">
+        <v>40</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="4">
-        <v>40</v>
-      </c>
-      <c r="W14" s="4" t="s">
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="3">
+        <v>40</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="J15" s="5" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="3"/>
+      <c r="J15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="4">
-        <v>40</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="5" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="3">
+        <v>40</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" s="4">
-        <v>40</v>
-      </c>
-      <c r="W15" s="4" t="s">
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" s="3">
+        <v>40</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="J16" s="5" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="3"/>
+      <c r="J16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="4">
-        <v>40</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="5" t="s">
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="3">
+        <v>40</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="4">
-        <v>40</v>
-      </c>
-      <c r="W16" s="4" t="s">
+      <c r="S16" s="8"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="3">
+        <v>40</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="J17" s="5" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="3"/>
+      <c r="J17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="4">
-        <v>40</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="5" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="3">
+        <v>40</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V17" s="4">
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="3">
         <v>120</v>
       </c>
-      <c r="W17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X17" s="1">
-        <v>1</v>
-      </c>
+      <c r="W17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="13"/>
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="J18" s="5" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="3"/>
+      <c r="J18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="4">
-        <v>40</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="5" t="s">
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="3">
+        <v>40</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="4" t="s">
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W18" s="4" t="s">
+      <c r="V18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="3">
         <v>10</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="3">
         <v>10</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="10" t="s">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="10" t="s">
+      <c r="V20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="4" t="s">
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="1">
@@ -1780,200 +1779,200 @@
       <c r="Q21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="4" t="s">
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W21" s="4" t="s">
+      <c r="V21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="3">
         <v>20</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="5" t="s">
+      <c r="O22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="4" t="s">
+      <c r="S22" s="8"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W22" s="4" t="s">
+      <c r="V22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="3">
         <v>20</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="5" t="s">
+      <c r="O23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V23" s="4">
-        <v>40</v>
-      </c>
-      <c r="W23" s="4" t="s">
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="3">
+        <v>40</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="3">
         <v>20</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V24" s="4">
-        <v>40</v>
-      </c>
-      <c r="W24" s="4" t="s">
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="3">
+        <v>40</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="3">
         <v>5</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="5" t="s">
+      <c r="O25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V25" s="4">
+      <c r="S25" s="8"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" s="3">
         <v>20</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W25" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="3">
         <v>5</v>
       </c>
-      <c r="O26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="5" t="s">
+      <c r="O26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="4" t="s">
+      <c r="S26" s="8"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="3">
         <v>10</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="W26" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="4" t="s">
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="3">
         <v>10</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P28" s="1">
@@ -1982,112 +1981,112 @@
       <c r="Q28" s="1">
         <v>1</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="10" t="s">
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="10" t="s">
+      <c r="V28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="10" t="s">
+      <c r="W28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="5" t="s">
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="4" t="s">
+      <c r="S29" s="8"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W29" s="4" t="s">
+      <c r="V29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="4" t="s">
+      <c r="S30" s="8"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="4" t="s">
+      <c r="V30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V31" s="4">
+      <c r="S31" s="8"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" s="3">
         <v>10</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="W31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V32" s="4">
+      <c r="S32" s="8"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" s="3">
         <v>10</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="W32" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V33" s="4">
+      <c r="S33" s="8"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33" s="3">
         <v>10</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="W33" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2096,226 +2095,191 @@
       <c r="Q35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="10" t="s">
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V35" s="10" t="s">
+      <c r="V35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W35" s="10" t="s">
+      <c r="W35" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R36" s="5" t="s">
+      <c r="R36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="4" t="s">
+      <c r="S36" s="8"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W36" s="4" t="s">
+      <c r="V36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="4" t="s">
+      <c r="S37" s="8"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W37" s="4" t="s">
+      <c r="V37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V38" s="4">
-        <v>40</v>
-      </c>
-      <c r="W38" s="4" t="s">
+      <c r="S38" s="8"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V38" s="3">
+        <v>40</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V39" s="4">
-        <v>40</v>
-      </c>
-      <c r="W39" s="4" t="s">
+      <c r="S39" s="8"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" s="3">
+        <v>40</v>
+      </c>
+      <c r="W39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="4" t="s">
+      <c r="S40" s="8"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40" s="3">
         <v>10</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="W40" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="4" t="s">
+      <c r="S41" s="8"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W41" s="4" t="s">
+      <c r="V41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="4" t="s">
+      <c r="S42" s="8"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W42" s="4" t="s">
+      <c r="V42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V43" s="4">
-        <v>40</v>
-      </c>
-      <c r="W43" s="4" t="s">
+      <c r="S43" s="8"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V43" s="3">
+        <v>40</v>
+      </c>
+      <c r="W43" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V44" s="4">
+      <c r="S44" s="8"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V44" s="3">
         <v>120</v>
       </c>
-      <c r="W44" s="4" t="s">
+      <c r="W44" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V45" s="4">
+      <c r="S45" s="8"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45" s="3">
         <v>120</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="W45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="R12:T12"/>
@@ -2332,17 +2296,52 @@
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="R43:T43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -2359,147 +2358,153 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="E5:G6"/>
     <mergeCell ref="E9:G10"/>
     <mergeCell ref="E11:G12"/>
     <mergeCell ref="E13:G14"/>
@@ -2509,12 +2514,6 @@
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="A15:C16"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="E5:G6"/>
     <mergeCell ref="E7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
